--- a/SmokeSuite/TestResource/TC_RunManager.xlsx
+++ b/SmokeSuite/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Wpp_Project_Final\Wpp_Project\wppGTCRegressionAutomation\SmokeSuite\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\SmokeSuite\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="53">
   <si>
     <t>Description</t>
   </si>
@@ -52,21 +52,12 @@
     <t>UnitName</t>
   </si>
   <si>
-    <t>createJob</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>JobCreation</t>
-  </si>
-  <si>
     <t>createBudget</t>
   </si>
   <si>
-    <t>CreateTimeSheet</t>
-  </si>
-  <si>
     <t>TS05_CreateExpenses</t>
   </si>
   <si>
@@ -76,18 +67,9 @@
     <t>CreateBudget</t>
   </si>
   <si>
-    <t>Timesheet</t>
-  </si>
-  <si>
-    <t>Create Job for Opco</t>
-  </si>
-  <si>
     <t>Create Working Estimate for Job</t>
   </si>
   <si>
-    <t>Create Timesheet for Employee</t>
-  </si>
-  <si>
     <t>Create ExpenseSheet for Employee</t>
   </si>
   <si>
@@ -103,9 +85,6 @@
     <t>TS06_ModifyBudget</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>Create_Quote</t>
   </si>
   <si>
@@ -115,15 +94,6 @@
     <t>Create Client Estimate for Job</t>
   </si>
   <si>
-    <t>EmployeeCreation</t>
-  </si>
-  <si>
-    <t>CreateEmployee</t>
-  </si>
-  <si>
-    <t>Creating Employee and Employee Vendor</t>
-  </si>
-  <si>
     <t>EmployeeUserCreation</t>
   </si>
   <si>
@@ -131,9 +101,6 @@
   </si>
   <si>
     <t>Creating Employee, Employee Vendor and User</t>
-  </si>
-  <si>
-    <t>CreateExpenses</t>
   </si>
   <si>
     <t>CreateUser</t>
@@ -647,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,293 +642,293 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>2</v>
@@ -969,30 +936,30 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1006,7 +973,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,72 +1000,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1112,7 +1079,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,72 +1107,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1222,7 +1189,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A2" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,72 +1216,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1328,7 +1295,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,72 +1322,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1434,7 +1401,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,97 +1428,97 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>2</v>
@@ -1761,18 +1728,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1795,18 +1762,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69671E08-1086-4706-AF96-59D3DF9089B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD5B70CA-9FCE-4A78-B7F2-B3B6AA0BF045}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69671E08-1086-4706-AF96-59D3DF9089B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SmokeSuite/TestResource/TC_RunManager.xlsx
+++ b/SmokeSuite/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestSuite_BAU\GlobalTestSuiteAutomation\SmokeSuite\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestSuiteAutomation\SmokeSuite\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -6485,8 +6485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6536,7 +6536,7 @@
         <v>259</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -6550,7 +6550,7 @@
         <v>262</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -6564,7 +6564,7 @@
         <v>265</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -6746,7 +6746,7 @@
         <v>485</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -6760,7 +6760,7 @@
         <v>490</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -6774,7 +6774,7 @@
         <v>491</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">

--- a/SmokeSuite/TestResource/TC_RunManager.xlsx
+++ b/SmokeSuite/TestResource/TC_RunManager.xlsx
@@ -6485,8 +6485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6746,7 +6746,7 @@
         <v>485</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -6788,7 +6788,7 @@
         <v>291</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">

--- a/SmokeSuite/TestResource/TC_RunManager.xlsx
+++ b/SmokeSuite/TestResource/TC_RunManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestSuiteAutomation\SmokeSuite\TestResource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestAutomation2\GlobalTestSuiteAutomation\SmokeSuite\TestResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="523">
-  <si>
-    <t>Description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="522">
   <si>
     <t>Execute</t>
   </si>
@@ -2039,9 +2036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2062,1919 +2057,1919 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="D38" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D45" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="D46" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="D49" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="D50" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="D51" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="F55" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="F56" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="F57" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="F58" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="F59" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D65" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D70" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="D82" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="D83" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4010,2469 +4005,2469 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D33" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="D36" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D39" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D41" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="D43" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="D45" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="D46" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D48" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D49" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D50" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D51" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="D53" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="D56" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="D57" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="D60" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="D64" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="D65" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F66" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D71" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -6483,569 +6478,686 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="2" width="38.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>266</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>278</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>281</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>284</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>287</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D21" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B23" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>293</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="B29" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E29" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="D31" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>310</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>313</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="B34" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="E34" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="B35" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>322</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>325</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>328</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>331</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>334</v>
@@ -7054,446 +7166,542 @@
         <v>333</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>336</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="B43" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="B44" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>345</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>348</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>351</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>354</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="B49" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="E49" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="B50" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>363</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>366</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="B53" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="D53" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>372</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>375</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>378</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>381</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>384</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>390</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>393</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="B63" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>399</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>402</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="B66" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>514</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>408</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="E70" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>419</v>
-      </c>
       <c r="B71" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>421</v>
@@ -7502,301 +7710,367 @@
         <v>420</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E73" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="B75" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>429</v>
       </c>
       <c r="C76" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="B77" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="E77" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B78" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>438</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>441</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>444</v>
       </c>
       <c r="C81" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="B82" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>304</v>
+        <v>453</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>453</v>
+        <v>303</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>450</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B87" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>461</v>
       </c>
       <c r="C88" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="B89" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="D89" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="B90" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>470</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>473</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>476</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>6</v>
+        <v>477</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
